--- a/controlcase.xlsx
+++ b/controlcase.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulhsu/CIS537_2018Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="27795" windowHeight="16410"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="27800" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="RiskInfo_PD" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RiskInfo_PD!$A$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -81,20 +89,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,9 +184,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -217,9 +219,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -425,13 +427,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A559" workbookViewId="0">
+      <selection activeCell="E579" sqref="E579"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -513,7 +515,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -554,7 +556,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -595,7 +597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -636,7 +638,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -677,7 +679,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -718,7 +720,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -759,7 +761,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -800,7 +802,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -841,7 +843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -882,7 +884,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -923,7 +925,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -964,7 +966,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1005,7 +1007,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1046,7 +1048,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1087,7 +1089,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1128,7 +1130,7 @@
         <v>27.4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1210,7 +1212,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1251,7 +1253,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1292,7 +1294,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1333,7 +1335,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1374,7 +1376,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1415,7 +1417,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1456,7 +1458,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1497,7 +1499,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1538,7 +1540,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1579,7 +1581,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1620,7 +1622,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1702,7 +1704,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1743,7 +1745,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1784,7 +1786,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1825,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1866,7 +1868,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1907,7 +1909,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1948,7 +1950,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1989,7 +1991,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2030,7 +2032,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2071,7 +2073,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2112,7 +2114,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -2153,7 +2155,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -2194,7 +2196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -2235,7 +2237,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2276,7 +2278,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2</v>
       </c>
@@ -2317,7 +2319,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2358,7 +2360,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2399,7 +2401,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2440,7 +2442,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2481,7 +2483,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2522,7 +2524,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2563,7 +2565,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2604,7 +2606,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2645,7 +2647,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2686,7 +2688,7 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2727,7 +2729,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2768,7 +2770,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2809,7 +2811,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2850,7 +2852,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2891,7 +2893,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2932,7 +2934,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2973,7 +2975,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3014,7 +3016,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -3055,7 +3057,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3096,7 +3098,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -3137,7 +3139,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3178,7 +3180,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3219,7 +3221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2</v>
       </c>
@@ -3260,7 +3262,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2</v>
       </c>
@@ -3301,7 +3303,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2</v>
       </c>
@@ -3342,7 +3344,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2</v>
       </c>
@@ -3383,7 +3385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2</v>
       </c>
@@ -3424,7 +3426,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2</v>
       </c>
@@ -3465,7 +3467,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2</v>
       </c>
@@ -3506,7 +3508,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2</v>
       </c>
@@ -3547,7 +3549,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3588,7 +3590,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3629,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3670,7 +3672,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3711,7 +3713,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3752,7 +3754,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3793,7 +3795,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3834,7 +3836,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3875,7 +3877,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3916,7 +3918,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3957,7 +3959,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3998,7 +4000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -4039,7 +4041,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -4080,7 +4082,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -4121,7 +4123,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1</v>
       </c>
@@ -4162,7 +4164,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>2</v>
       </c>
@@ -4203,7 +4205,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2</v>
       </c>
@@ -4244,7 +4246,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>2</v>
       </c>
@@ -4285,7 +4287,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>2</v>
       </c>
@@ -4326,7 +4328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2</v>
       </c>
@@ -4367,7 +4369,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1</v>
       </c>
@@ -4408,7 +4410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
@@ -4449,7 +4451,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1</v>
       </c>
@@ -4490,7 +4492,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1</v>
       </c>
@@ -4531,7 +4533,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1</v>
       </c>
@@ -4572,7 +4574,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2</v>
       </c>
@@ -4613,7 +4615,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2</v>
       </c>
@@ -4654,7 +4656,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2</v>
       </c>
@@ -4695,7 +4697,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2</v>
       </c>
@@ -4736,7 +4738,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2</v>
       </c>
@@ -4777,7 +4779,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2</v>
       </c>
@@ -4818,7 +4820,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2</v>
       </c>
@@ -4859,7 +4861,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2</v>
       </c>
@@ -4900,7 +4902,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2</v>
       </c>
@@ -4941,7 +4943,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2</v>
       </c>
@@ -4982,7 +4984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1</v>
       </c>
@@ -5023,7 +5025,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1</v>
       </c>
@@ -5064,7 +5066,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1</v>
       </c>
@@ -5105,7 +5107,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1</v>
       </c>
@@ -5146,7 +5148,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1</v>
       </c>
@@ -5187,7 +5189,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2</v>
       </c>
@@ -5228,7 +5230,7 @@
         <v>45.6</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2</v>
       </c>
@@ -5269,7 +5271,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2</v>
       </c>
@@ -5310,7 +5312,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2</v>
       </c>
@@ -5351,7 +5353,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2</v>
       </c>
@@ -5392,7 +5394,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2</v>
       </c>
@@ -5433,7 +5435,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2</v>
       </c>
@@ -5474,7 +5476,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2</v>
       </c>
@@ -5515,7 +5517,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2</v>
       </c>
@@ -5556,7 +5558,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2</v>
       </c>
@@ -5597,7 +5599,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2</v>
       </c>
@@ -5638,7 +5640,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2</v>
       </c>
@@ -5679,7 +5681,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2</v>
       </c>
@@ -5720,7 +5722,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2</v>
       </c>
@@ -5761,7 +5763,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2</v>
       </c>
@@ -5802,7 +5804,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1</v>
       </c>
@@ -5843,7 +5845,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1</v>
       </c>
@@ -5884,7 +5886,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1</v>
       </c>
@@ -5925,7 +5927,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1</v>
       </c>
@@ -5966,7 +5968,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1</v>
       </c>
@@ -6007,7 +6009,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1</v>
       </c>
@@ -6048,7 +6050,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1</v>
       </c>
@@ -6089,7 +6091,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1</v>
       </c>
@@ -6130,7 +6132,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1</v>
       </c>
@@ -6171,7 +6173,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1</v>
       </c>
@@ -6212,7 +6214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1</v>
       </c>
@@ -6253,7 +6255,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1</v>
       </c>
@@ -6294,7 +6296,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1</v>
       </c>
@@ -6335,7 +6337,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1</v>
       </c>
@@ -6376,7 +6378,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>2</v>
       </c>
@@ -6417,7 +6419,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>2</v>
       </c>
@@ -6458,7 +6460,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2</v>
       </c>
@@ -6499,7 +6501,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2</v>
       </c>
@@ -6540,7 +6542,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>2</v>
       </c>
@@ -6581,7 +6583,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>2</v>
       </c>
@@ -6622,7 +6624,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2</v>
       </c>
@@ -6663,7 +6665,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2</v>
       </c>
@@ -6704,7 +6706,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>2</v>
       </c>
@@ -6745,7 +6747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>2</v>
       </c>
@@ -6786,7 +6788,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1</v>
       </c>
@@ -6827,7 +6829,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1</v>
       </c>
@@ -6868,7 +6870,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1</v>
       </c>
@@ -6909,7 +6911,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1</v>
       </c>
@@ -6950,7 +6952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1</v>
       </c>
@@ -6991,7 +6993,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>2</v>
       </c>
@@ -7032,7 +7034,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2</v>
       </c>
@@ -7073,7 +7075,7 @@
         <v>58.3</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>2</v>
       </c>
@@ -7114,7 +7116,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>2</v>
       </c>
@@ -7155,7 +7157,7 @@
         <v>44.6</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2</v>
       </c>
@@ -7196,7 +7198,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1</v>
       </c>
@@ -7237,7 +7239,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1</v>
       </c>
@@ -7278,7 +7280,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1</v>
       </c>
@@ -7319,7 +7321,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1</v>
       </c>
@@ -7360,7 +7362,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1</v>
       </c>
@@ -7401,7 +7403,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2</v>
       </c>
@@ -7442,7 +7444,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2</v>
       </c>
@@ -7483,7 +7485,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2</v>
       </c>
@@ -7524,7 +7526,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>2</v>
       </c>
@@ -7565,7 +7567,7 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2</v>
       </c>
@@ -7606,7 +7608,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1</v>
       </c>
@@ -7647,7 +7649,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1</v>
       </c>
@@ -7688,7 +7690,7 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1</v>
       </c>
@@ -7729,7 +7731,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1</v>
       </c>
@@ -7770,7 +7772,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1</v>
       </c>
@@ -7811,7 +7813,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1</v>
       </c>
@@ -7852,7 +7854,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1</v>
       </c>
@@ -7893,7 +7895,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1</v>
       </c>
@@ -7934,7 +7936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1</v>
       </c>
@@ -7975,7 +7977,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1</v>
       </c>
@@ -8016,7 +8018,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2</v>
       </c>
@@ -8057,7 +8059,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>2</v>
       </c>
@@ -8098,7 +8100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2</v>
       </c>
@@ -8139,7 +8141,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2</v>
       </c>
@@ -8180,7 +8182,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>2</v>
       </c>
@@ -8221,7 +8223,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1</v>
       </c>
@@ -8262,7 +8264,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1</v>
       </c>
@@ -8303,7 +8305,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1</v>
       </c>
@@ -8344,7 +8346,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1</v>
       </c>
@@ -8385,7 +8387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1</v>
       </c>
@@ -8426,7 +8428,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1</v>
       </c>
@@ -8467,7 +8469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1</v>
       </c>
@@ -8508,7 +8510,7 @@
         <v>67.7</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1</v>
       </c>
@@ -8549,7 +8551,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1</v>
       </c>
@@ -8590,7 +8592,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1</v>
       </c>
@@ -8631,7 +8633,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2</v>
       </c>
@@ -8672,7 +8674,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>2</v>
       </c>
@@ -8713,7 +8715,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>2</v>
       </c>
@@ -8754,7 +8756,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2</v>
       </c>
@@ -8795,7 +8797,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>2</v>
       </c>
@@ -8836,7 +8838,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>2</v>
       </c>
@@ -8877,7 +8879,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2</v>
       </c>
@@ -8918,7 +8920,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>2</v>
       </c>
@@ -8959,7 +8961,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>2</v>
       </c>
@@ -9000,7 +9002,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>2</v>
       </c>
@@ -9041,7 +9043,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>2</v>
       </c>
@@ -9082,7 +9084,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>2</v>
       </c>
@@ -9123,7 +9125,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2</v>
       </c>
@@ -9164,7 +9166,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2</v>
       </c>
@@ -9205,7 +9207,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>2</v>
       </c>
@@ -9246,7 +9248,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1</v>
       </c>
@@ -9287,7 +9289,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1</v>
       </c>
@@ -9328,7 +9330,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1</v>
       </c>
@@ -9369,7 +9371,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1</v>
       </c>
@@ -9410,7 +9412,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1</v>
       </c>
@@ -9451,7 +9453,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>1</v>
       </c>
@@ -9492,7 +9494,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>1</v>
       </c>
@@ -9533,7 +9535,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1</v>
       </c>
@@ -9574,7 +9576,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1</v>
       </c>
@@ -9615,7 +9617,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>1</v>
       </c>
@@ -9656,7 +9658,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>1</v>
       </c>
@@ -9697,7 +9699,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>1</v>
       </c>
@@ -9738,7 +9740,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>1</v>
       </c>
@@ -9779,7 +9781,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>1</v>
       </c>
@@ -9820,7 +9822,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1</v>
       </c>
@@ -9861,7 +9863,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2</v>
       </c>
@@ -9902,7 +9904,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2</v>
       </c>
@@ -9943,7 +9945,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2</v>
       </c>
@@ -9984,7 +9986,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2</v>
       </c>
@@ -10025,7 +10027,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2</v>
       </c>
@@ -10066,7 +10068,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2</v>
       </c>
@@ -10107,7 +10109,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2</v>
       </c>
@@ -10148,7 +10150,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2</v>
       </c>
@@ -10189,7 +10191,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2</v>
       </c>
@@ -10230,7 +10232,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>2</v>
       </c>
@@ -10271,7 +10273,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>1</v>
       </c>
@@ -10312,7 +10314,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>1</v>
       </c>
@@ -10353,7 +10355,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>1</v>
       </c>
@@ -10394,7 +10396,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>1</v>
       </c>
@@ -10435,7 +10437,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1</v>
       </c>
@@ -10476,7 +10478,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2</v>
       </c>
@@ -10517,7 +10519,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>2</v>
       </c>
@@ -10558,7 +10560,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>2</v>
       </c>
@@ -10599,7 +10601,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2</v>
       </c>
@@ -10640,7 +10642,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>2</v>
       </c>
@@ -10681,7 +10683,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>1</v>
       </c>
@@ -10722,7 +10724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>1</v>
       </c>
@@ -10763,7 +10765,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>1</v>
       </c>
@@ -10804,7 +10806,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>1</v>
       </c>
@@ -10845,7 +10847,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>1</v>
       </c>
@@ -10886,7 +10888,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>1</v>
       </c>
@@ -10927,7 +10929,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>1</v>
       </c>
@@ -10968,7 +10970,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>1</v>
       </c>
@@ -11009,7 +11011,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>1</v>
       </c>
@@ -11050,7 +11052,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1</v>
       </c>
@@ -11091,7 +11093,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2</v>
       </c>
@@ -11132,7 +11134,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>2</v>
       </c>
@@ -11173,7 +11175,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>2</v>
       </c>
@@ -11214,7 +11216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>2</v>
       </c>
@@ -11255,7 +11257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>1</v>
       </c>
@@ -11296,7 +11298,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>1</v>
       </c>
@@ -11337,7 +11339,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>1</v>
       </c>
@@ -11378,7 +11380,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>1</v>
       </c>
@@ -11419,7 +11421,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>1</v>
       </c>
@@ -11460,7 +11462,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>1</v>
       </c>
@@ -11501,7 +11503,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>1</v>
       </c>
@@ -11542,7 +11544,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1</v>
       </c>
@@ -11583,7 +11585,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>1</v>
       </c>
@@ -11624,7 +11626,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>1</v>
       </c>
@@ -11665,7 +11667,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1</v>
       </c>
@@ -11706,7 +11708,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>1</v>
       </c>
@@ -11747,7 +11749,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>1</v>
       </c>
@@ -11788,7 +11790,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>1</v>
       </c>
@@ -11829,7 +11831,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>1</v>
       </c>
@@ -11870,7 +11872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2</v>
       </c>
@@ -11911,7 +11913,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>2</v>
       </c>
@@ -11952,7 +11954,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>2</v>
       </c>
@@ -11993,7 +11995,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>2</v>
       </c>
@@ -12034,7 +12036,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>2</v>
       </c>
@@ -12075,7 +12077,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>1</v>
       </c>
@@ -12116,7 +12118,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>1</v>
       </c>
@@ -12157,7 +12159,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>1</v>
       </c>
@@ -12198,7 +12200,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>1</v>
       </c>
@@ -12239,7 +12241,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>1</v>
       </c>
@@ -12280,7 +12282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>2</v>
       </c>
@@ -12321,7 +12323,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>2</v>
       </c>
@@ -12362,7 +12364,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>2</v>
       </c>
@@ -12403,7 +12405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2</v>
       </c>
@@ -12444,7 +12446,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>2</v>
       </c>
@@ -12485,7 +12487,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>2</v>
       </c>
@@ -12526,7 +12528,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>2</v>
       </c>
@@ -12567,7 +12569,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>2</v>
       </c>
@@ -12608,7 +12610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>2</v>
       </c>
@@ -12649,7 +12651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>2</v>
       </c>
@@ -12690,7 +12692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>2</v>
       </c>
@@ -12731,7 +12733,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>2</v>
       </c>
@@ -12772,7 +12774,7 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>2</v>
       </c>
@@ -12813,7 +12815,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>2</v>
       </c>
@@ -12854,7 +12856,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>2</v>
       </c>
@@ -12895,7 +12897,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>2</v>
       </c>
@@ -12936,7 +12938,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>2</v>
       </c>
@@ -12977,7 +12979,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>2</v>
       </c>
@@ -13018,7 +13020,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>2</v>
       </c>
@@ -13059,7 +13061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2</v>
       </c>
@@ -13100,7 +13102,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>1</v>
       </c>
@@ -13141,7 +13143,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>1</v>
       </c>
@@ -13182,7 +13184,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>1</v>
       </c>
@@ -13223,7 +13225,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>1</v>
       </c>
@@ -13264,7 +13266,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>1</v>
       </c>
@@ -13305,7 +13307,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>2</v>
       </c>
@@ -13346,7 +13348,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>2</v>
       </c>
@@ -13387,7 +13389,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>2</v>
       </c>
@@ -13428,7 +13430,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>2</v>
       </c>
@@ -13469,7 +13471,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>2</v>
       </c>
@@ -13510,7 +13512,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>2</v>
       </c>
@@ -13551,7 +13553,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>2</v>
       </c>
@@ -13592,7 +13594,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>2</v>
       </c>
@@ -13633,7 +13635,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>2</v>
       </c>
@@ -13674,7 +13676,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>2</v>
       </c>
@@ -13715,7 +13717,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2</v>
       </c>
@@ -13756,7 +13758,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>2</v>
       </c>
@@ -13797,7 +13799,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>2</v>
       </c>
@@ -13838,7 +13840,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>2</v>
       </c>
@@ -13879,7 +13881,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>2</v>
       </c>
@@ -13920,7 +13922,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>2</v>
       </c>
@@ -13961,7 +13963,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>2</v>
       </c>
@@ -14002,7 +14004,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>2</v>
       </c>
@@ -14043,7 +14045,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>2</v>
       </c>
@@ -14084,7 +14086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2</v>
       </c>
@@ -14125,7 +14127,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>2</v>
       </c>
@@ -14166,7 +14168,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>2</v>
       </c>
@@ -14207,7 +14209,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>2</v>
       </c>
@@ -14248,7 +14250,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>2</v>
       </c>
@@ -14289,7 +14291,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>2</v>
       </c>
@@ -14330,7 +14332,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>1</v>
       </c>
@@ -14371,7 +14373,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>1</v>
       </c>
@@ -14412,7 +14414,7 @@
         <v>65.3</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>1</v>
       </c>
@@ -14453,7 +14455,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>1</v>
       </c>
@@ -14494,7 +14496,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>1</v>
       </c>
@@ -14535,7 +14537,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>1</v>
       </c>
@@ -14576,7 +14578,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>1</v>
       </c>
@@ -14617,7 +14619,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>1</v>
       </c>
@@ -14658,7 +14660,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>1</v>
       </c>
@@ -14699,7 +14701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>1</v>
       </c>
@@ -14740,7 +14742,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>1</v>
       </c>
@@ -14781,7 +14783,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>1</v>
       </c>
@@ -14822,7 +14824,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>1</v>
       </c>
@@ -14863,7 +14865,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>1</v>
       </c>
@@ -14904,7 +14906,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>1</v>
       </c>
@@ -14945,7 +14947,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>1</v>
       </c>
@@ -14986,7 +14988,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>1</v>
       </c>
@@ -15027,7 +15029,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>1</v>
       </c>
@@ -15068,7 +15070,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>1</v>
       </c>
@@ -15109,7 +15111,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>1</v>
       </c>
@@ -15150,7 +15152,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>2</v>
       </c>
@@ -15191,7 +15193,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>2</v>
       </c>
@@ -15232,7 +15234,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>2</v>
       </c>
@@ -15273,7 +15275,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>2</v>
       </c>
@@ -15314,7 +15316,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>2</v>
       </c>
@@ -15355,7 +15357,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>2</v>
       </c>
@@ -15396,7 +15398,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>2</v>
       </c>
@@ -15437,7 +15439,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>2</v>
       </c>
@@ -15478,7 +15480,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>2</v>
       </c>
@@ -15519,7 +15521,7 @@
         <v>52.6</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>2</v>
       </c>
@@ -15560,7 +15562,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>1</v>
       </c>
@@ -15601,7 +15603,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>1</v>
       </c>
@@ -15642,7 +15644,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>1</v>
       </c>
@@ -15683,7 +15685,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>1</v>
       </c>
@@ -15724,7 +15726,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>1</v>
       </c>
@@ -15765,7 +15767,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>2</v>
       </c>
@@ -15806,7 +15808,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2</v>
       </c>
@@ -15847,7 +15849,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>2</v>
       </c>
@@ -15888,7 +15890,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>2</v>
       </c>
@@ -15929,7 +15931,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>2</v>
       </c>
@@ -15970,7 +15972,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>1</v>
       </c>
@@ -16011,7 +16013,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>1</v>
       </c>
@@ -16052,7 +16054,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>1</v>
       </c>
@@ -16093,7 +16095,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>1</v>
       </c>
@@ -16134,7 +16136,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>1</v>
       </c>
@@ -16175,7 +16177,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>1</v>
       </c>
@@ -16216,7 +16218,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>1</v>
       </c>
@@ -16257,7 +16259,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>1</v>
       </c>
@@ -16298,7 +16300,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>1</v>
       </c>
@@ -16339,7 +16341,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>1</v>
       </c>
@@ -16380,7 +16382,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>1</v>
       </c>
@@ -16421,7 +16423,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>1</v>
       </c>
@@ -16462,7 +16464,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>1</v>
       </c>
@@ -16503,7 +16505,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>1</v>
       </c>
@@ -16544,7 +16546,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>1</v>
       </c>
@@ -16585,7 +16587,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>1</v>
       </c>
@@ -16626,7 +16628,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>1</v>
       </c>
@@ -16667,7 +16669,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>1</v>
       </c>
@@ -16708,7 +16710,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>1</v>
       </c>
@@ -16749,7 +16751,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>1</v>
       </c>
@@ -16790,7 +16792,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>1</v>
       </c>
@@ -16831,7 +16833,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>1</v>
       </c>
@@ -16872,7 +16874,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>1</v>
       </c>
@@ -16913,7 +16915,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>1</v>
       </c>
@@ -16954,7 +16956,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>1</v>
       </c>
@@ -16995,7 +16997,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>2</v>
       </c>
@@ -17036,7 +17038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>2</v>
       </c>
@@ -17077,7 +17079,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>2</v>
       </c>
@@ -17118,7 +17120,7 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>2</v>
       </c>
@@ -17159,7 +17161,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>2</v>
       </c>
@@ -17200,7 +17202,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>1</v>
       </c>
@@ -17241,7 +17243,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>1</v>
       </c>
@@ -17282,7 +17284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>1</v>
       </c>
@@ -17323,7 +17325,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>1</v>
       </c>
@@ -17364,7 +17366,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>1</v>
       </c>
@@ -17405,7 +17407,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>1</v>
       </c>
@@ -17446,7 +17448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>1</v>
       </c>
@@ -17487,7 +17489,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>1</v>
       </c>
@@ -17528,7 +17530,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>1</v>
       </c>
@@ -17569,7 +17571,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>1</v>
       </c>
@@ -17610,7 +17612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>1</v>
       </c>
@@ -17651,7 +17653,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>1</v>
       </c>
@@ -17692,7 +17694,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>1</v>
       </c>
@@ -17733,7 +17735,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>1</v>
       </c>
@@ -17774,7 +17776,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>1</v>
       </c>
@@ -17815,7 +17817,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>1</v>
       </c>
@@ -17856,7 +17858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>1</v>
       </c>
@@ -17897,7 +17899,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>1</v>
       </c>
@@ -17938,7 +17940,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>1</v>
       </c>
@@ -17979,7 +17981,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>1</v>
       </c>
@@ -18020,7 +18022,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>1</v>
       </c>
@@ -18061,7 +18063,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>1</v>
       </c>
@@ -18102,7 +18104,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>1</v>
       </c>
@@ -18143,7 +18145,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>1</v>
       </c>
@@ -18184,7 +18186,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>2</v>
       </c>
@@ -18225,7 +18227,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>2</v>
       </c>
@@ -18266,7 +18268,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>2</v>
       </c>
@@ -18307,7 +18309,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>2</v>
       </c>
@@ -18348,7 +18350,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>2</v>
       </c>
@@ -18389,7 +18391,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>2</v>
       </c>
@@ -18430,7 +18432,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>2</v>
       </c>
@@ -18471,7 +18473,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>2</v>
       </c>
@@ -18512,7 +18514,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>2</v>
       </c>
@@ -18553,7 +18555,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>2</v>
       </c>
@@ -18594,7 +18596,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>2</v>
       </c>
@@ -18635,7 +18637,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>2</v>
       </c>
@@ -18676,7 +18678,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>2</v>
       </c>
@@ -18717,7 +18719,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>2</v>
       </c>
@@ -18758,7 +18760,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>2</v>
       </c>
@@ -18799,7 +18801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>1</v>
       </c>
@@ -18840,7 +18842,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>1</v>
       </c>
@@ -18881,7 +18883,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>1</v>
       </c>
@@ -18922,7 +18924,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>1</v>
       </c>
@@ -18963,7 +18965,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>1</v>
       </c>
@@ -19004,7 +19006,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>1</v>
       </c>
@@ -19045,7 +19047,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>1</v>
       </c>
@@ -19086,7 +19088,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>1</v>
       </c>
@@ -19127,7 +19129,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>1</v>
       </c>
@@ -19168,7 +19170,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>1</v>
       </c>
@@ -19209,7 +19211,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>1</v>
       </c>
@@ -19250,7 +19252,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>1</v>
       </c>
@@ -19291,7 +19293,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>1</v>
       </c>
@@ -19332,7 +19334,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>1</v>
       </c>
@@ -19373,7 +19375,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>1</v>
       </c>
@@ -19414,7 +19416,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>2</v>
       </c>
@@ -19455,7 +19457,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>2</v>
       </c>
@@ -19496,7 +19498,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>2</v>
       </c>
@@ -19537,7 +19539,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>2</v>
       </c>
@@ -19578,7 +19580,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>1</v>
       </c>
@@ -19619,7 +19621,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>1</v>
       </c>
@@ -19660,7 +19662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>1</v>
       </c>
@@ -19701,7 +19703,7 @@
         <v>24.8</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>1</v>
       </c>
@@ -19742,7 +19744,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>1</v>
       </c>
@@ -19783,7 +19785,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>1</v>
       </c>
@@ -19824,7 +19826,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>1</v>
       </c>
@@ -19865,7 +19867,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>1</v>
       </c>
@@ -19906,7 +19908,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>1</v>
       </c>
@@ -19947,7 +19949,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>1</v>
       </c>
@@ -19988,7 +19990,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>2</v>
       </c>
@@ -20029,7 +20031,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>2</v>
       </c>
@@ -20070,7 +20072,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>2</v>
       </c>
@@ -20111,7 +20113,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>2</v>
       </c>
@@ -20152,7 +20154,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>2</v>
       </c>
@@ -20193,7 +20195,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>2</v>
       </c>
@@ -20234,7 +20236,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>2</v>
       </c>
@@ -20275,7 +20277,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>2</v>
       </c>
@@ -20316,7 +20318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>2</v>
       </c>
@@ -20357,7 +20359,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>2</v>
       </c>
@@ -20398,7 +20400,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>2</v>
       </c>
@@ -20439,7 +20441,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>2</v>
       </c>
@@ -20480,7 +20482,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>2</v>
       </c>
@@ -20521,7 +20523,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>2</v>
       </c>
@@ -20562,7 +20564,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>2</v>
       </c>
@@ -20603,7 +20605,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>1</v>
       </c>
@@ -20644,7 +20646,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>1</v>
       </c>
@@ -20685,7 +20687,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>1</v>
       </c>
@@ -20726,7 +20728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>1</v>
       </c>
@@ -20767,7 +20769,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>1</v>
       </c>
@@ -20808,7 +20810,7 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>1</v>
       </c>
@@ -20849,7 +20851,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>1</v>
       </c>
@@ -20890,7 +20892,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>1</v>
       </c>
@@ -20931,7 +20933,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>1</v>
       </c>
@@ -20972,7 +20974,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>1</v>
       </c>
@@ -21013,7 +21015,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>2</v>
       </c>
@@ -21054,7 +21056,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>2</v>
       </c>
@@ -21095,7 +21097,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>2</v>
       </c>
@@ -21136,7 +21138,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>2</v>
       </c>
@@ -21177,7 +21179,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>2</v>
       </c>
@@ -21218,7 +21220,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>1</v>
       </c>
@@ -21259,7 +21261,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>1</v>
       </c>
@@ -21300,7 +21302,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>1</v>
       </c>
@@ -21341,7 +21343,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>1</v>
       </c>
@@ -21382,7 +21384,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>1</v>
       </c>
@@ -21423,7 +21425,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>2</v>
       </c>
@@ -21464,7 +21466,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>2</v>
       </c>
@@ -21505,7 +21507,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>2</v>
       </c>
@@ -21546,7 +21548,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>2</v>
       </c>
@@ -21587,7 +21589,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>2</v>
       </c>
@@ -21628,7 +21630,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>1</v>
       </c>
@@ -21669,7 +21671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>1</v>
       </c>
@@ -21710,7 +21712,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>1</v>
       </c>
@@ -21751,7 +21753,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>1</v>
       </c>
@@ -21792,7 +21794,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>1</v>
       </c>
@@ -21833,7 +21835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>1</v>
       </c>
@@ -21874,7 +21876,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>1</v>
       </c>
@@ -21915,7 +21917,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>1</v>
       </c>
@@ -21956,7 +21958,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>1</v>
       </c>
@@ -21997,7 +21999,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>2</v>
       </c>
@@ -22038,7 +22040,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>2</v>
       </c>
@@ -22079,7 +22081,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>2</v>
       </c>
@@ -22120,7 +22122,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>2</v>
       </c>
@@ -22161,7 +22163,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>2</v>
       </c>
@@ -22202,7 +22204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>1</v>
       </c>
@@ -22243,7 +22245,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>1</v>
       </c>
@@ -22284,7 +22286,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>1</v>
       </c>
@@ -22325,7 +22327,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>1</v>
       </c>
@@ -22366,7 +22368,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>1</v>
       </c>
@@ -22407,7 +22409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>2</v>
       </c>
@@ -22448,7 +22450,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>2</v>
       </c>
@@ -22489,7 +22491,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>2</v>
       </c>
@@ -22530,7 +22532,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>2</v>
       </c>
@@ -22571,7 +22573,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>2</v>
       </c>
@@ -22612,7 +22614,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>2</v>
       </c>
@@ -22653,7 +22655,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>2</v>
       </c>
@@ -22694,7 +22696,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>2</v>
       </c>
@@ -22735,7 +22737,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>2</v>
       </c>
@@ -22776,7 +22778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>2</v>
       </c>
@@ -22817,7 +22819,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>1</v>
       </c>
@@ -22858,7 +22860,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>1</v>
       </c>
@@ -22899,7 +22901,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>1</v>
       </c>
@@ -22940,7 +22942,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>1</v>
       </c>
@@ -22981,7 +22983,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>1</v>
       </c>
@@ -23022,7 +23024,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>1</v>
       </c>
@@ -23063,7 +23065,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>1</v>
       </c>
@@ -23104,7 +23106,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>1</v>
       </c>
@@ -23145,7 +23147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>1</v>
       </c>
@@ -23186,7 +23188,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>1</v>
       </c>
@@ -23227,7 +23229,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>2</v>
       </c>
@@ -23268,7 +23270,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>2</v>
       </c>
@@ -23309,7 +23311,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>2</v>
       </c>
@@ -23350,7 +23352,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>2</v>
       </c>
@@ -23391,7 +23393,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>2</v>
       </c>
@@ -23432,7 +23434,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>2</v>
       </c>
@@ -23473,7 +23475,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>2</v>
       </c>
@@ -23514,7 +23516,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>2</v>
       </c>
@@ -23555,7 +23557,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>2</v>
       </c>
@@ -23596,7 +23598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>2</v>
       </c>
@@ -23637,7 +23639,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>2</v>
       </c>
@@ -23678,7 +23680,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>2</v>
       </c>
@@ -23719,7 +23721,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>2</v>
       </c>
@@ -23760,7 +23762,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>2</v>
       </c>
@@ -23801,7 +23803,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>2</v>
       </c>
@@ -23842,7 +23844,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>1</v>
       </c>
@@ -23883,7 +23885,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>1</v>
       </c>
@@ -23924,7 +23926,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>2</v>
       </c>
@@ -23965,7 +23967,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>2</v>
       </c>
@@ -24006,7 +24008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>1</v>
       </c>
